--- a/シナリオ別金融政策.xlsx
+++ b/シナリオ別金融政策.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ベースライン</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>9月▲25bp,Q4に▲75bp</t>
+  </si>
+  <si>
+    <t>連続・大幅利下げ</t>
   </si>
 </sst>
 </file>
@@ -389,13 +392,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +411,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>45292</v>
       </c>
@@ -425,8 +431,11 @@
       <c r="E2">
         <v>5.374999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>5.374999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>45383</v>
       </c>
@@ -442,8 +451,11 @@
       <c r="E3">
         <v>5.375000000000038</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>5.375000000000038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>45474</v>
       </c>
@@ -459,8 +471,11 @@
       <c r="E4">
         <v>5.324995262057104</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>5.324995262057104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>45566</v>
       </c>
@@ -476,8 +491,11 @@
       <c r="E5">
         <v>4.258538745381484</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>4.00851409442404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>45658</v>
       </c>
@@ -493,8 +511,11 @@
       <c r="E6">
         <v>4.26703752968733</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>4.061259621418382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>45748</v>
       </c>
@@ -510,8 +531,11 @@
       <c r="E7">
         <v>4.225037401175148</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>4.060793400635059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>45839</v>
       </c>
@@ -527,8 +551,11 @@
       <c r="E8">
         <v>4.117833894312659</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>3.994474611393215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>45931</v>
       </c>
@@ -544,8 +571,11 @@
       <c r="E9">
         <v>4.006721838068495</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>3.920048237798839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>46023</v>
       </c>
@@ -561,8 +591,11 @@
       <c r="E10">
         <v>3.874383927760034</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>3.820634323769962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>46113</v>
       </c>
@@ -578,8 +611,11 @@
       <c r="E11">
         <v>3.724011457778231</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>3.698741862372052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>46204</v>
       </c>
@@ -595,8 +631,11 @@
       <c r="E12">
         <v>3.561255776847006</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>3.560296115450755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>46296</v>
       </c>
@@ -611,6 +650,9 @@
       </c>
       <c r="E13">
         <v>3.39101224750751</v>
+      </c>
+      <c r="F13">
+        <v>3.410189600472426</v>
       </c>
     </row>
   </sheetData>
